--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/land/CApULAbIFM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B4D18D-25EE-D943-8D53-233DD4980015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="315" windowWidth="18825" windowHeight="6555"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="21080" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="CApULAbIFM" sheetId="3" r:id="rId3"/>
+    <sheet name="Carbon capture" sheetId="5" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId3"/>
+    <sheet name="CApULAbIFM" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>CApULAbIFM CO2 Abated per Unit Land Area by Improved Forest Management</t>
   </si>
@@ -30,43 +48,82 @@
     <t>Per Acre</t>
   </si>
   <si>
-    <t>Increased Annual CO2 Sequestration Achievable by Improved Management Practices per Acre</t>
-  </si>
-  <si>
-    <t>tons CO2 / acre / yr</t>
-  </si>
-  <si>
-    <t>Low Estimate</t>
-  </si>
-  <si>
-    <t>High Estimate</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>g CO2 / acre / yr</t>
-  </si>
-  <si>
-    <t>Average, converted to grams CO2</t>
-  </si>
-  <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Greenhouse Gas Mitigation Potential in U.S. Forestry and Agriculture</t>
-  </si>
-  <si>
-    <t>http://www.epa.gov/climate/climatechange/Downloads/ccs/ghg_mitigation_forestry_ag_2005.pdf</t>
-  </si>
-  <si>
-    <t>Page 2-3, Table 2-1</t>
+    <t>Instituto Nacional de Ecología y Cambio Climático (INECC)</t>
+  </si>
+  <si>
+    <t>1997 (estimates for 2000,2010,2030)</t>
+  </si>
+  <si>
+    <t>Carbon emissions capture in Mexico</t>
+  </si>
+  <si>
+    <t>https://www.fas.org/sgp/crs/misc/R40562.pdf</t>
+  </si>
+  <si>
+    <t>Cuadro 3.4</t>
+  </si>
+  <si>
+    <t>Technical potential</t>
+  </si>
+  <si>
+    <t>Area (million hectares)</t>
+  </si>
+  <si>
+    <t>Accumulated CO2 (Gton)</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Forestry policy</t>
+  </si>
+  <si>
+    <t>Improved forest mgmt</t>
+  </si>
+  <si>
+    <t>Manejo forestal</t>
+  </si>
+  <si>
+    <t>Sistemas agroforestales</t>
+  </si>
+  <si>
+    <t>Conversion factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 G = </t>
+  </si>
+  <si>
+    <t>1 ton =</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>1 kg =</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Potential </t>
+  </si>
+  <si>
+    <t>Area (acres)</t>
+  </si>
+  <si>
+    <t>Accumulated CO2 (g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ha = </t>
+  </si>
+  <si>
+    <t>acres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,15 +149,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,12 +171,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -124,6 +228,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -135,8 +284,72 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9585325" cy="5753100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E880EB-D246-0842-8481-F766B1E1D82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9585325" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -182,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +428,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,155 +672,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{0AA3972E-175E-184B-8289-F7FC2C975BBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C3D21A-600C-324F-968E-57E19A5EC2D8}">
+  <dimension ref="B33:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:J44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="33" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2030</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15">
+        <v>18.7</v>
+      </c>
+      <c r="E35" s="14">
+        <v>2.13</v>
+      </c>
+      <c r="F35" s="14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="H36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="H37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="20">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="H40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2030</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="15">
+        <f>D35*I40*1000000</f>
+        <v>46189000</v>
+      </c>
+      <c r="E42" s="21">
+        <f>E35*I38*I39*I37</f>
+        <v>2130000000000000</v>
+      </c>
+      <c r="F42" s="21">
+        <f>F35*I38*I39*I37</f>
+        <v>2800000000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="16">
+        <f>D36*I40*1000000</f>
+        <v>4693000.0000000009</v>
+      </c>
+      <c r="E43" s="22">
+        <f>E36*I38*I39*I37</f>
+        <v>100000000000000</v>
+      </c>
+      <c r="F43" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2.1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>AVERAGE(A2:A3)</f>
-        <v>2.6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>A4*10^6</f>
-        <v>2600000</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="3" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2030</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15">
+        <v>18.7</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2.13</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="H6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="H10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2030</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15">
+        <f>D5*I10*1000000</f>
+        <v>46189000</v>
+      </c>
+      <c r="E12" s="21">
+        <f>E5*I8*I9*I7</f>
+        <v>2130000000000000</v>
+      </c>
+      <c r="F12" s="21">
+        <f>F5*I8*I9*I7</f>
+        <v>2800000000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D6*I10*1000000</f>
+        <v>4693000.0000000009</v>
+      </c>
+      <c r="E13" s="22">
+        <f>E6*I8*I9*I7</f>
+        <v>100000000000000</v>
+      </c>
+      <c r="F13" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>Calculations!A6</f>
-        <v>2600000</v>
+        <f>((AVERAGE(Calculations!E12:F12)/Calculations!D12)+(Calculations!E13/Calculations!D13))/30</f>
+        <v>2489200.5501423785</v>
       </c>
     </row>
   </sheetData>
